--- a/myapp/files/9_MethodComparePercent/Scenario 338.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 338.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>2412</v>
+        <v>12089</v>
       </c>
       <c r="F2" t="n">
-        <v>4.6458770730204</v>
+        <v>2.01834525407542</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>5.40540540540541</v>
+        <v>2.2140221402214</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>3506</v>
+        <v>20290</v>
       </c>
       <c r="F3" t="n">
-        <v>6.75308665754955</v>
+        <v>3.38756102284642</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>5.40540540540541</v>
+        <v>2.2140221402214</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>1102</v>
+        <v>17233</v>
       </c>
       <c r="F4" t="n">
-        <v>2.12261879538494</v>
+        <v>2.87717294759548</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -669,10 +669,10 @@
         <v>3.07692307692308</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>2.7027027027027</v>
+        <v>2.5830258302583</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>264</v>
+        <v>20153</v>
       </c>
       <c r="F5" t="n">
-        <v>0.508503958241039</v>
+        <v>3.36468789026239</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>1.53846153846154</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>2.7027027027027</v>
+        <v>2.9520295202952</v>
       </c>
       <c r="K5" t="n">
         <v>3</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>960</v>
+        <v>17251</v>
       </c>
       <c r="F6" t="n">
-        <v>1.84910530269469</v>
+        <v>2.88017817669411</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>2.7027027027027</v>
+        <v>2.5830258302583</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>8660</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.4458491107861</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.8450184501845</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>108</v>
+        <v>26291</v>
       </c>
       <c r="F8" t="n">
-        <v>0.208024346553152</v>
+        <v>4.38947101289577</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -821,10 +821,10 @@
         <v>3.07692307692308</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>2.7027027027027</v>
+        <v>4.4280442804428</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>7612</v>
+        <v>41536</v>
       </c>
       <c r="F9" t="n">
-        <v>14.6618641292833</v>
+        <v>6.93473310226461</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>3.07692307692308</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J9" t="n">
-        <v>8.10810810810811</v>
+        <v>7.74907749077491</v>
       </c>
       <c r="K9" t="n">
         <v>3</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>9801</v>
+        <v>67703</v>
       </c>
       <c r="F10" t="n">
-        <v>18.8782094496986</v>
+        <v>11.3035014258143</v>
       </c>
       <c r="G10" t="n">
         <v>6</v>
@@ -897,10 +897,10 @@
         <v>9.23076923076923</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="J10" t="n">
-        <v>13.5135135135135</v>
+        <v>9.59409594095941</v>
       </c>
       <c r="K10" t="n">
         <v>8</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>1000</v>
+        <v>34769</v>
       </c>
       <c r="F11" t="n">
-        <v>1.92615135697363</v>
+        <v>5.80493391835127</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -935,10 +935,10 @@
         <v>3.07692307692308</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J11" t="n">
-        <v>2.7027027027027</v>
+        <v>6.27306273062731</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>4455</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.743794201911326</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.3690036900369</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>1428</v>
+        <v>22920</v>
       </c>
       <c r="F13" t="n">
-        <v>2.75054413775835</v>
+        <v>3.82665838559093</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -1011,10 +1011,10 @@
         <v>3.07692307692308</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>2.7027027027027</v>
+        <v>3.3210332103321</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>6297</v>
+        <v>50655</v>
       </c>
       <c r="F14" t="n">
-        <v>12.128975094863</v>
+        <v>8.45721555506582</v>
       </c>
       <c r="G14" t="n">
         <v>10</v>
@@ -1049,10 +1049,10 @@
         <v>15.3846153846154</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="J14" t="n">
-        <v>13.5135135135135</v>
+        <v>8.48708487084871</v>
       </c>
       <c r="K14" t="n">
         <v>7</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>5620</v>
+        <v>77105</v>
       </c>
       <c r="F15" t="n">
-        <v>10.8249706261918</v>
+        <v>12.8732327583328</v>
       </c>
       <c r="G15" t="n">
         <v>14</v>
@@ -1087,16 +1087,16 @@
         <v>21.5384615384615</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J15" t="n">
-        <v>16.2162162162162</v>
+        <v>11.070110701107</v>
       </c>
       <c r="K15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L15" t="n">
-        <v>21.5384615384615</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>8375</v>
+        <v>50312</v>
       </c>
       <c r="F16" t="n">
-        <v>16.1315176146542</v>
+        <v>8.39994924501967</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J16" t="n">
-        <v>10.8108108108108</v>
+        <v>8.11808118081181</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>4455</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.743794201911326</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.3690036900369</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>8011</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.33749390606322</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1.53846153846154</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.1070110701107</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>320</v>
+        <v>22552</v>
       </c>
       <c r="F19" t="n">
-        <v>0.616368434231562</v>
+        <v>3.76521814624113</v>
       </c>
       <c r="G19" t="n">
         <v>9</v>
@@ -1239,10 +1239,10 @@
         <v>13.8461538461538</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J19" t="n">
-        <v>2.7027027027027</v>
+        <v>4.4280442804428</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>30959</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0192615135697363</v>
+        <v>5.16882709247424</v>
       </c>
       <c r="G20" t="n">
         <v>8</v>
@@ -1277,10 +1277,10 @@
         <v>12.3076923076923</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J20" t="n">
-        <v>2.7027027027027</v>
+        <v>6.27306273062731</v>
       </c>
       <c r="K20" t="n">
         <v>4</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>16303</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2.72190277749952</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>1.53846153846154</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>5.53505535055351</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>3080</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.514228090210299</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.3690036900369</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>4965</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.828942359705888</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.738007380073801</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>1363</v>
+        <v>11357</v>
       </c>
       <c r="F24" t="n">
-        <v>2.62534429955506</v>
+        <v>1.89613260406441</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,10 +1429,10 @@
         <v>1.53846153846154</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
-        <v>2.7027027027027</v>
+        <v>2.5830258302583</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>1739</v>
+        <v>13656</v>
       </c>
       <c r="F25" t="n">
-        <v>3.34957720977714</v>
+        <v>2.27996714282852</v>
       </c>
       <c r="G25" t="n">
         <v>4</v>
@@ -1467,10 +1467,10 @@
         <v>6.15384615384615</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>2.7027027027027</v>
+        <v>2.5830258302583</v>
       </c>
       <c r="K25" t="n">
         <v>2</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>12196</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2.03620967149507</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>2.2140221402214</v>
       </c>
       <c r="K26" t="n">
         <v>3</v>
